--- a/Proj/Huynh, Ngoc - Project1 - 42480.xlsx
+++ b/Proj/Huynh, Ngoc - Project1 - 42480.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Chapter</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Where Line #''s</t>
-  </si>
-  <si>
-    <t>Pts</t>
   </si>
   <si>
     <t>Notes</t>
@@ -399,7 +396,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,24 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,12 +418,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,6 +448,27 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -761,21 +755,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,723 +778,618 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="16">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="19">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11">
         <v>33</v>
       </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="19">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11">
         <v>115</v>
       </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="23"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>3</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="15">
         <v>1</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15">
+        <v>5</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15">
+        <v>6</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15">
+        <v>7</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15">
+        <v>9</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15">
+        <v>10</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>4</v>
+      </c>
+      <c r="B34" s="15">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23">
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15">
+        <v>4</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15">
+        <v>5</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15">
+        <v>6</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15">
+        <v>7</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15">
+        <v>11</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15">
+        <v>13</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15">
+        <v>14</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="13">
+        <v>117</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>5</v>
+      </c>
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15">
         <v>2</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23">
-        <v>3</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23">
-        <v>4</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23">
+      <c r="C46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="19">
+        <v>65116</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15">
         <v>5</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="23">
-        <v>4</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23">
+      <c r="C47" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15">
         <v>6</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23">
-        <v>7</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="23">
-        <v>4</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23">
-        <v>8</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="23">
-        <v>3</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23">
-        <v>9</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="23">
-        <v>4</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23">
-        <v>10</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
-        <v>4</v>
-      </c>
-      <c r="B34" s="23">
-        <v>1</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23">
-        <v>2</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="23">
-        <v>4</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23">
-        <v>4</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="23">
-        <v>4</v>
-      </c>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23">
-        <v>5</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="23">
-        <v>4</v>
-      </c>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23">
-        <v>6</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="23">
-        <v>4</v>
-      </c>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23">
-        <v>7</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23">
-        <v>8</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="23">
-        <v>4</v>
-      </c>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23">
+      <c r="C48" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15">
         <v>11</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="23">
-        <v>4</v>
-      </c>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23">
-        <v>13</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="23">
-        <v>4</v>
-      </c>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23">
-        <v>14</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="21">
-        <v>117</v>
-      </c>
-      <c r="E43" s="23">
-        <v>4</v>
-      </c>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
-        <v>5</v>
-      </c>
-      <c r="B45" s="23">
-        <v>1</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="23">
-        <v>4</v>
-      </c>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23">
-        <v>2</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="27">
-        <v>65116</v>
-      </c>
-      <c r="E46" s="23">
-        <v>4</v>
-      </c>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23">
-        <v>5</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="23">
-        <v>4</v>
-      </c>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23">
-        <v>6</v>
-      </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="23">
-        <v>4</v>
-      </c>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23">
-        <v>11</v>
-      </c>
-      <c r="C49" s="24" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15">
+        <v>12</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="23">
-        <v>8</v>
-      </c>
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23">
-        <v>12</v>
-      </c>
-      <c r="C50" s="24" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="24"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="23">
-        <v>100</v>
-      </c>
-      <c r="F53" s="24"/>
+      <c r="E53" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
